--- a/tests/resources/xlsx/attack_quadratic_blowup.xlsx
+++ b/tests/resources/xlsx/attack_quadratic_blowup.xlsx
@@ -34,4 +34,96 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="0"/>
   </cellXfs>
 </styleSheet>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
 </file>